--- a/PROJETO/Modelo-Fisico/MedicalGroup1.xlsx
+++ b/PROJETO/Modelo-Fisico/MedicalGroup1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senai - Santa cecilia\Bando-de-Dados\PROJETO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36349647823\Desktop\GIT - EXERCICIOS\SENAI_SPMedgroup_sprint1_bd_manha_CarlosHenriqueFS\PROJETO\Modelo-Fisico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F09BF23E-6428-4BA3-9E3B-C28D6058411D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F004388-76D3-45D5-8B13-CE76DDE9F60B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2136" yWindow="2088" windowWidth="16488" windowHeight="8964" xr2:uid="{CDE8CF6E-353D-4F73-898C-F289BB478F05}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>IdClinica</t>
   </si>
@@ -183,27 +177,15 @@
     <t>Camilo</t>
   </si>
   <si>
-    <t>112898-6959</t>
-  </si>
-  <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>112456-9596</t>
-  </si>
-  <si>
     <t>Higor</t>
   </si>
   <si>
-    <t>112136-9585</t>
-  </si>
-  <si>
     <t>Vinicius</t>
   </si>
   <si>
-    <t>112128-6532</t>
-  </si>
-  <si>
     <t>Medico</t>
   </si>
   <si>
@@ -214,13 +196,79 @@
   </si>
   <si>
     <t>Rebeca</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Camilo@gmail.com</t>
+  </si>
+  <si>
+    <t>Diana2020@gmail.com</t>
+  </si>
+  <si>
+    <t>Higor20@gmail.com</t>
+  </si>
+  <si>
+    <t>Vi19@gmail.com</t>
+  </si>
+  <si>
+    <t>123Camilo</t>
+  </si>
+  <si>
+    <t>DianaDiDi</t>
+  </si>
+  <si>
+    <t>Higuinho20</t>
+  </si>
+  <si>
+    <t>141311Vi</t>
+  </si>
+  <si>
+    <t>IdEspecialidade</t>
+  </si>
+  <si>
+    <t>Especialidade</t>
+  </si>
+  <si>
+    <t>NomeEspecialidade</t>
+  </si>
+  <si>
+    <t>Odontologico</t>
+  </si>
+  <si>
+    <t>Dermatologista</t>
+  </si>
+  <si>
+    <t>IdADM</t>
+  </si>
+  <si>
+    <t>NomeADM</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Roshele</t>
+  </si>
+  <si>
+    <t>Joana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +276,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +349,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,33 +371,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDD9428-753F-42FF-8F77-CE508FF06CB0}">
-  <dimension ref="B5:AQ10"/>
+  <dimension ref="B5:AZ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,6 +744,7 @@
     <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -655,56 +752,70 @@
     <col min="38" max="38" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="8"/>
-      <c r="Q5" s="3" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13"/>
+      <c r="Q5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="Y5" s="4" t="s">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="Y5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="8"/>
-      <c r="AG5" s="5" t="s">
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="14"/>
+      <c r="AG5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="8"/>
-      <c r="AL5" s="6" t="s">
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="2"/>
+      <c r="AL5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="2"/>
+      <c r="AS5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT5" s="5"/>
+      <c r="AW5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="15"/>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -735,6 +846,9 @@
       <c r="M6" t="s">
         <v>10</v>
       </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
       <c r="Q6" t="s">
         <v>11</v>
       </c>
@@ -748,9 +862,6 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" t="s">
         <v>6</v>
       </c>
       <c r="Y6" t="s">
@@ -760,14 +871,17 @@
         <v>17</v>
       </c>
       <c r="AA6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="AB6" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s">
         <v>19</v>
       </c>
+      <c r="AD6" t="s">
+        <v>72</v>
+      </c>
       <c r="AG6" t="s">
         <v>19</v>
       </c>
@@ -789,8 +903,29 @@
       <c r="AP6" t="s">
         <v>11</v>
       </c>
+      <c r="AQ6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -821,22 +956,22 @@
       <c r="M7">
         <v>1126359658</v>
       </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="1">
         <v>43852</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
         <v>1</v>
       </c>
       <c r="Y7">
@@ -845,13 +980,16 @@
       <c r="Z7" t="s">
         <v>49</v>
       </c>
-      <c r="AA7" t="s">
-        <v>36</v>
+      <c r="AA7" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="AB7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <v>1</v>
       </c>
       <c r="AG7">
@@ -864,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="AM7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AO7" t="s">
         <v>36</v>
@@ -872,8 +1010,29 @@
       <c r="AP7">
         <v>1</v>
       </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -904,13 +1063,16 @@
       <c r="M8">
         <v>1126985684</v>
       </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
       <c r="Q8">
         <v>2</v>
       </c>
       <c r="R8" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="1">
         <v>44076</v>
       </c>
       <c r="T8">
@@ -919,29 +1081,29 @@
       <c r="U8">
         <v>2</v>
       </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
       <c r="Y8">
         <v>2</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="AB8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AC8">
         <v>2</v>
       </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
       <c r="AG8">
         <v>2</v>
       </c>
       <c r="AH8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AL8">
         <v>2</v>
@@ -955,8 +1117,29 @@
       <c r="AP8">
         <v>2</v>
       </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -987,13 +1170,16 @@
       <c r="M9">
         <v>1126963526</v>
       </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="1">
         <v>44323</v>
       </c>
       <c r="T9">
@@ -1002,35 +1188,35 @@
       <c r="U9">
         <v>3</v>
       </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
       <c r="Y9">
         <v>3</v>
       </c>
       <c r="Z9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AH9" t="s">
         <v>53</v>
       </c>
-      <c r="AA9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
-      </c>
-      <c r="AG9">
-        <v>3</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>57</v>
-      </c>
       <c r="AL9">
         <v>3</v>
       </c>
       <c r="AM9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="s">
         <v>36</v>
@@ -1038,8 +1224,29 @@
       <c r="AP9">
         <v>3</v>
       </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY9">
+        <v>3</v>
+      </c>
+      <c r="AZ9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1070,13 +1277,16 @@
       <c r="M10">
         <v>1124896325</v>
       </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
       <c r="Q10">
         <v>4</v>
       </c>
       <c r="R10" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="1">
         <v>43997</v>
       </c>
       <c r="T10">
@@ -1085,22 +1295,22 @@
       <c r="U10">
         <v>4</v>
       </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
       <c r="Y10">
         <v>4</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="AB10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
         <v>4</v>
       </c>
       <c r="AG10">
@@ -1113,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="AM10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AO10" t="s">
         <v>39</v>
@@ -1121,9 +1331,35 @@
       <c r="AP10">
         <v>4</v>
       </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY10">
+        <v>4</v>
+      </c>
+      <c r="AZ10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="AD15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AS5:AT5"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="Q5:V5"/>
     <mergeCell ref="AL5:AP5"/>
@@ -1131,6 +1367,13 @@
     <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="I5:M5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AA7" r:id="rId1" xr:uid="{FD0ECD88-585E-4E8A-9EF0-B7717D626D53}"/>
+    <hyperlink ref="AA8" r:id="rId2" xr:uid="{3EF30F2A-B469-4C87-A5F8-36BEDF3E4E34}"/>
+    <hyperlink ref="AA9" r:id="rId3" xr:uid="{F6DE191F-6CDA-4751-9423-8330ABA85BDD}"/>
+    <hyperlink ref="AA10" r:id="rId4" xr:uid="{B96079A5-6B68-4F0B-98C8-F824F815D68C}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/PROJETO/Modelo-Fisico/MedicalGroup1.xlsx
+++ b/PROJETO/Modelo-Fisico/MedicalGroup1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36349647823\Desktop\GIT - EXERCICIOS\SENAI_SPMedgroup_sprint1_bd_manha_CarlosHenriqueFS\PROJETO\Modelo-Fisico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Senai - Santa cecilia\Bando-de-Dados\PROJETO\SENAI_SPMedgroup_sprint1_bd_manha_CarlosHenriqueFS\PROJETO\Modelo-Fisico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F004388-76D3-45D5-8B13-CE76DDE9F60B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614D6B7D-CCAA-4ADC-994B-461CA62815E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="2088" windowWidth="16488" windowHeight="8964" xr2:uid="{CDE8CF6E-353D-4F73-898C-F289BB478F05}"/>
+    <workbookView xWindow="588" yWindow="3396" windowWidth="16488" windowHeight="8964" xr2:uid="{CDE8CF6E-353D-4F73-898C-F289BB478F05}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>IdClinica</t>
   </si>
@@ -231,9 +231,6 @@
     <t>IdEspecialidade</t>
   </si>
   <si>
-    <t>Especialidade</t>
-  </si>
-  <si>
     <t>NomeEspecialidade</t>
   </si>
   <si>
@@ -262,6 +259,24 @@
   </si>
   <si>
     <t>Joana</t>
+  </si>
+  <si>
+    <t>ESPECIALIDADE</t>
+  </si>
+  <si>
+    <t>DataN</t>
+  </si>
+  <si>
+    <t>IdSituacao</t>
+  </si>
+  <si>
+    <t>Situacao</t>
+  </si>
+  <si>
+    <t>Realizada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
   </si>
 </sst>
 </file>
@@ -300,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +373,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,12 +480,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,12 +509,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -415,6 +535,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6600FF"/>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FF9900FF"/>
+      <color rgb="FF993366"/>
+      <color rgb="FFCC3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -723,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDD9428-753F-42FF-8F77-CE508FF06CB0}">
-  <dimension ref="B5:AZ15"/>
+  <dimension ref="B5:BD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:V5"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +875,9 @@
     <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -756,9 +887,10 @@
     <col min="45" max="45" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:56" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -766,7 +898,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="1"/>
       <c r="I5" s="11" t="s">
         <v>13</v>
       </c>
@@ -774,7 +906,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="3"/>
       <c r="Q5" s="7" t="s">
         <v>26</v>
       </c>
@@ -790,12 +922,13 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
-      <c r="AD5" s="14"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
       <c r="AG5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="2"/>
+      <c r="AI5" s="9"/>
       <c r="AL5" s="8" t="s">
         <v>25</v>
       </c>
@@ -803,569 +936,633 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="2"/>
+      <c r="AQ5" s="8"/>
       <c r="AS5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT5" s="5"/>
+      <c r="AW5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BC5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD5" s="25"/>
+    </row>
+    <row r="6" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="Y6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI6" s="20"/>
+      <c r="AL6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AT5" s="5"/>
-      <c r="AW5" s="12" t="s">
+      <c r="AT6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD6" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2365559874412</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1123658569</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1126359658</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="18">
+        <v>43852</v>
+      </c>
+      <c r="T7" s="17">
+        <v>1</v>
+      </c>
+      <c r="U7" s="17">
+        <v>1</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="Y7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>20000212</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="21"/>
+      <c r="AL7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT7" s="24">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="15"/>
+      <c r="AY7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="27">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="28">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="28" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="s">
+    <row r="8" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13">
+        <v>23652485445621</v>
+      </c>
+      <c r="F8" s="13">
+        <v>11965875232</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1126985684</v>
+      </c>
+      <c r="N8" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>2</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="18">
+        <v>44076</v>
+      </c>
+      <c r="T8" s="17">
+        <v>2</v>
+      </c>
+      <c r="U8" s="17">
+        <v>2</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="Y8" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>19900308</v>
+      </c>
+      <c r="AG8" s="21">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI8" s="21"/>
+      <c r="AL8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="22">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT8" s="24">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="27">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" s="27">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="27">
+        <v>2</v>
+      </c>
+      <c r="BC8" s="28">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13">
+        <v>36524589810236</v>
+      </c>
+      <c r="F9" s="13">
+        <v>11298856687</v>
+      </c>
+      <c r="I9" s="15">
+        <v>3</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1126963526</v>
+      </c>
+      <c r="N9" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>3</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="18">
+        <v>44323</v>
+      </c>
+      <c r="T9" s="17">
+        <v>3</v>
+      </c>
+      <c r="U9" s="17">
+        <v>3</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="Y9" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>19980416</v>
+      </c>
+      <c r="AG9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI9" s="21"/>
+      <c r="AL9" s="22">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP9" s="22">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="22">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="AT6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>11</v>
+      <c r="AT9" s="24">
+        <v>3</v>
+      </c>
+      <c r="AW9" s="27">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY9" s="27">
+        <v>3</v>
+      </c>
+      <c r="AZ9" s="27">
+        <v>3</v>
+      </c>
+      <c r="BC9" s="28">
+        <v>3</v>
+      </c>
+      <c r="BD9" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7">
-        <v>2365559874412</v>
-      </c>
-      <c r="F7">
-        <v>1123658569</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
+    <row r="10" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13">
+        <v>36356985654123</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1127896547</v>
+      </c>
+      <c r="I10" s="15">
+        <v>4</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M7">
-        <v>1126359658</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="1">
-        <v>43852</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="M10" s="15">
+        <v>1124896325</v>
+      </c>
+      <c r="N10" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>4</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="18">
+        <v>43997</v>
+      </c>
+      <c r="T10" s="17">
+        <v>4</v>
+      </c>
+      <c r="U10" s="17">
+        <v>4</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="Y10" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>19950724</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
+      <c r="AI10" s="21"/>
+      <c r="AL10" s="22">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP10" s="22">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="22">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" s="24">
+        <v>4</v>
+      </c>
+      <c r="AW10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AZ10" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC10" s="28">
+        <v>4</v>
+      </c>
+      <c r="BD10" s="28" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>23652485445621</v>
-      </c>
-      <c r="F8">
-        <v>11965875232</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>1126985684</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="1">
-        <v>44076</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <v>2</v>
-      </c>
-      <c r="AG8">
-        <v>2</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL8">
-        <v>2</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP8">
-        <v>2</v>
-      </c>
-      <c r="AQ8">
-        <v>2</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
-        <v>2</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY8">
-        <v>2</v>
-      </c>
-      <c r="AZ8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>36524589810236</v>
-      </c>
-      <c r="F9">
-        <v>11298856687</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>1126963526</v>
-      </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" s="1">
-        <v>44323</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
-      <c r="Y9">
-        <v>3</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
-      </c>
-      <c r="AD9">
-        <v>3</v>
-      </c>
-      <c r="AG9">
-        <v>3</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL9">
-        <v>3</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP9">
-        <v>3</v>
-      </c>
-      <c r="AQ9">
-        <v>3</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT9">
-        <v>3</v>
-      </c>
-      <c r="AW9">
-        <v>3</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY9">
-        <v>3</v>
-      </c>
-      <c r="AZ9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>36356985654123</v>
-      </c>
-      <c r="F10">
-        <v>1127896547</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10">
-        <v>1124896325</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="1">
-        <v>43997</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-      <c r="U10">
-        <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>4</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC10">
-        <v>4</v>
-      </c>
-      <c r="AD10">
-        <v>4</v>
-      </c>
-      <c r="AG10">
-        <v>4</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL10">
-        <v>4</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP10">
-        <v>4</v>
-      </c>
-      <c r="AQ10">
-        <v>4</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT10">
-        <v>4</v>
-      </c>
-      <c r="AW10">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY10">
-        <v>4</v>
-      </c>
-      <c r="AZ10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="AD15" s="4"/>
+    <row r="15" spans="2:56" x14ac:dyDescent="0.3">
+      <c r="AD15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AW5:AY5"/>
+  <mergeCells count="9">
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AS5:AT5"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="I5:M5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AW5:AZ5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AA7" r:id="rId1" xr:uid="{FD0ECD88-585E-4E8A-9EF0-B7717D626D53}"/>
